--- a/我的创作/股票/交易系统/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/交易系统/SEAP交易系统/交易计划.xlsx
@@ -3032,7 +3032,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M78" sqref="B78:M78"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>

--- a/我的创作/股票/交易系统/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/交易系统/SEAP交易系统/交易计划.xlsx
@@ -683,14 +683,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -814,15 +814,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,16 +845,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,8 +883,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,13 +901,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,47 +921,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,7 +1008,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,25 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,37 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,7 +1050,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,7 +1086,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,36 +1122,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1170,19 +1134,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,6 +1233,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1244,47 +1253,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,11 +1281,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1326,142 +1326,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1499,18 +1499,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1526,7 +1526,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1541,265 +1541,265 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1808,13 +1808,13 @@
     <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1896,14 +1896,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3028,11 +3021,11 @@
   <dimension ref="A1:BH540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomRight" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -4500,7 +4493,7 @@
         <v>110.08</v>
       </c>
       <c r="J26" s="50">
-        <f t="shared" ref="J26:J77" si="8">(F26+F26*0.2)</f>
+        <f t="shared" ref="J26:J78" si="8">(F26+F26*0.2)</f>
         <v>141.9</v>
       </c>
       <c r="K26" s="26">
@@ -4579,7 +4572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" ht="14" spans="1:20">
       <c r="A28" s="22" t="s">
         <v>87</v>
       </c>
@@ -4689,7 +4682,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" ht="14" spans="1:20">
       <c r="A30" s="22" t="s">
         <v>92</v>
       </c>
@@ -4857,7 +4850,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" ht="14" spans="1:20">
       <c r="A33" s="22" t="s">
         <v>98</v>
       </c>
@@ -4969,7 +4962,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" ht="14" spans="1:20">
       <c r="A35" s="22" t="s">
         <v>102</v>
       </c>
@@ -5025,7 +5018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" ht="14" spans="1:20">
       <c r="A36" s="22" t="s">
         <v>105</v>
       </c>
@@ -5137,7 +5130,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" ht="14" spans="1:20">
       <c r="A38" s="22" t="s">
         <v>111</v>
       </c>
@@ -5249,7 +5242,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" ht="14" spans="1:20">
       <c r="A40" s="22" t="s">
         <v>115</v>
       </c>
@@ -5305,7 +5298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" ht="14" spans="1:20">
       <c r="A41" s="22" t="s">
         <v>117</v>
       </c>
@@ -5417,7 +5410,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" ht="14" spans="1:20">
       <c r="A43" s="22" t="s">
         <v>122</v>
       </c>
@@ -5473,7 +5466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" ht="14" spans="1:20">
       <c r="A44" s="22" t="s">
         <v>123</v>
       </c>
@@ -5528,7 +5521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" ht="14" spans="1:20">
       <c r="A45" s="22" t="s">
         <v>124</v>
       </c>
@@ -5584,7 +5577,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" ht="14" spans="1:20">
       <c r="A46" s="22" t="s">
         <v>127</v>
       </c>
@@ -5640,7 +5633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" ht="14" spans="1:20">
       <c r="A47" s="22" t="s">
         <v>128</v>
       </c>
@@ -5886,7 +5879,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" ht="14" spans="1:20">
       <c r="A51" s="22" t="s">
         <v>137</v>
       </c>
@@ -6065,7 +6058,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" ht="14" spans="1:20">
       <c r="A54" s="22" t="s">
         <v>145</v>
       </c>
@@ -6435,7 +6428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" ht="14" spans="1:20">
       <c r="A60" s="22" t="s">
         <v>163</v>
       </c>
@@ -7567,11 +7560,11 @@
         <v>10.8</v>
       </c>
       <c r="J78" s="109">
-        <f>(F78+F78*0.2)</f>
+        <f t="shared" si="8"/>
         <v>14.1</v>
       </c>
       <c r="K78" s="110">
-        <f>(F78-I78)*100</f>
+        <f t="shared" si="16"/>
         <v>94.9999999999999</v>
       </c>
       <c r="L78" s="110">
@@ -7583,7 +7576,7 @@
         <v>2.47368421052632</v>
       </c>
       <c r="N78" s="77">
-        <f>(F78-$I78)/F78</f>
+        <f t="shared" si="17"/>
         <v>0.0808510638297872</v>
       </c>
       <c r="O78" s="80"/>
@@ -7601,19 +7594,38 @@
       <c r="C79" s="97"/>
       <c r="D79" s="97"/>
       <c r="E79" s="104"/>
-      <c r="F79" s="105"/>
+      <c r="F79" s="105">
+        <v>7.1</v>
+      </c>
       <c r="G79" s="105"/>
       <c r="H79" s="105"/>
-      <c r="I79" s="105"/>
-      <c r="J79" s="105"/>
-      <c r="K79" s="97"/>
-      <c r="L79" s="97"/>
-      <c r="M79" s="97"/>
-      <c r="N79" s="113"/>
-      <c r="O79" s="114"/>
-      <c r="P79" s="114"/>
-      <c r="Q79" s="114"/>
-      <c r="R79" s="114"/>
+      <c r="I79" s="105">
+        <v>6.52</v>
+      </c>
+      <c r="J79" s="109">
+        <f>(F79+F79*0.2)</f>
+        <v>8.52</v>
+      </c>
+      <c r="K79" s="110">
+        <f>(F79-I79)*100</f>
+        <v>58</v>
+      </c>
+      <c r="L79" s="110">
+        <f>FLOOR(2600/(F79-I79),100)</f>
+        <v>4400</v>
+      </c>
+      <c r="M79" s="112">
+        <f>(J79-F79)/(F79-I79)</f>
+        <v>2.44827586206897</v>
+      </c>
+      <c r="N79" s="77">
+        <f>(F79-$I79)/F79</f>
+        <v>0.0816901408450704</v>
+      </c>
+      <c r="O79" s="113"/>
+      <c r="P79" s="113"/>
+      <c r="Q79" s="113"/>
+      <c r="R79" s="113"/>
       <c r="S79" s="117"/>
       <c r="T79" s="118"/>
     </row>
@@ -7631,11 +7643,11 @@
       <c r="K80" s="97"/>
       <c r="L80" s="97"/>
       <c r="M80" s="97"/>
-      <c r="N80" s="113"/>
-      <c r="O80" s="114"/>
-      <c r="P80" s="114"/>
-      <c r="Q80" s="114"/>
-      <c r="R80" s="114"/>
+      <c r="N80" s="114"/>
+      <c r="O80" s="113"/>
+      <c r="P80" s="113"/>
+      <c r="Q80" s="113"/>
+      <c r="R80" s="113"/>
       <c r="S80" s="117"/>
       <c r="T80" s="118"/>
     </row>
@@ -7653,11 +7665,11 @@
       <c r="K81" s="97"/>
       <c r="L81" s="97"/>
       <c r="M81" s="97"/>
-      <c r="N81" s="113"/>
-      <c r="O81" s="114"/>
-      <c r="P81" s="114"/>
-      <c r="Q81" s="114"/>
-      <c r="R81" s="114"/>
+      <c r="N81" s="114"/>
+      <c r="O81" s="113"/>
+      <c r="P81" s="113"/>
+      <c r="Q81" s="113"/>
+      <c r="R81" s="113"/>
       <c r="S81" s="117"/>
       <c r="T81" s="118"/>
     </row>
@@ -7675,11 +7687,11 @@
       <c r="K82" s="97"/>
       <c r="L82" s="97"/>
       <c r="M82" s="97"/>
-      <c r="N82" s="113"/>
-      <c r="O82" s="114"/>
-      <c r="P82" s="114"/>
-      <c r="Q82" s="114"/>
-      <c r="R82" s="114"/>
+      <c r="N82" s="114"/>
+      <c r="O82" s="113"/>
+      <c r="P82" s="113"/>
+      <c r="Q82" s="113"/>
+      <c r="R82" s="113"/>
       <c r="S82" s="117"/>
       <c r="T82" s="118"/>
     </row>
@@ -7697,11 +7709,11 @@
       <c r="K83" s="97"/>
       <c r="L83" s="97"/>
       <c r="M83" s="97"/>
-      <c r="N83" s="113"/>
-      <c r="O83" s="114"/>
-      <c r="P83" s="114"/>
-      <c r="Q83" s="114"/>
-      <c r="R83" s="114"/>
+      <c r="N83" s="114"/>
+      <c r="O83" s="113"/>
+      <c r="P83" s="113"/>
+      <c r="Q83" s="113"/>
+      <c r="R83" s="113"/>
       <c r="S83" s="117"/>
       <c r="T83" s="118"/>
     </row>
@@ -7719,11 +7731,11 @@
       <c r="K84" s="97"/>
       <c r="L84" s="97"/>
       <c r="M84" s="97"/>
-      <c r="N84" s="113"/>
-      <c r="O84" s="114"/>
-      <c r="P84" s="114"/>
-      <c r="Q84" s="114"/>
-      <c r="R84" s="114"/>
+      <c r="N84" s="114"/>
+      <c r="O84" s="113"/>
+      <c r="P84" s="113"/>
+      <c r="Q84" s="113"/>
+      <c r="R84" s="113"/>
       <c r="S84" s="117"/>
       <c r="T84" s="118"/>
     </row>
@@ -7741,11 +7753,11 @@
       <c r="K85" s="97"/>
       <c r="L85" s="97"/>
       <c r="M85" s="97"/>
-      <c r="N85" s="113"/>
-      <c r="O85" s="114"/>
-      <c r="P85" s="114"/>
-      <c r="Q85" s="114"/>
-      <c r="R85" s="114"/>
+      <c r="N85" s="114"/>
+      <c r="O85" s="113"/>
+      <c r="P85" s="113"/>
+      <c r="Q85" s="113"/>
+      <c r="R85" s="113"/>
       <c r="S85" s="117"/>
       <c r="T85" s="118"/>
     </row>
@@ -13652,7 +13664,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C1:C2" r:id="rId1" display="股票代码"/>
